--- a/src/main/java/com/practice/springboot/topics/InterviewQuestions (SpringBoot).xlsx
+++ b/src/main/java/com/practice/springboot/topics/InterviewQuestions (SpringBoot).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Questions</t>
   </si>
@@ -25,19 +25,92 @@
   </si>
   <si>
     <t>Difference between @RequestMapping, @GetMapping, @PostMapping?</t>
+  </si>
+  <si>
+    <t>Spring vs SpringBoot?</t>
+  </si>
+  <si>
+    <t>What is Spring Boot and mention the need for it?</t>
+  </si>
+  <si>
+    <t>Mention the advantages of Spring Boot.</t>
+  </si>
+  <si>
+    <t>What are the Spring Boot starters and what are the available starters?</t>
+  </si>
+  <si>
+    <t>Explain Spring Actuator and its advantages</t>
+  </si>
+  <si>
+    <t>https://www.edureka.co/blog/interview-questions/spring-boot-interview-questions/</t>
+  </si>
+  <si>
+    <t>Suggested Web Link</t>
+  </si>
+  <si>
+    <t>What is Spring Boot dependency management?</t>
+  </si>
+  <si>
+    <t>Explain what is thymeleaf and how to use thymeleaf?</t>
+  </si>
+  <si>
+    <t>https://www.tutorialspoint.com/spring_boot/spring_boot_thymeleaf.htm</t>
+  </si>
+  <si>
+    <t>Can we change the port of the embedded Tomcat server in Spring boot?</t>
+  </si>
+  <si>
+    <t>What is the need for Spring Boot DevTools?</t>
+  </si>
+  <si>
+    <t>Auto-refresh vs Auto-restart</t>
+  </si>
+  <si>
+    <t>Auto-refresh (or auto-load) refer to UI reload at browser to see static content changes. Auto-restart is referred to reloading the server side code and configurations followed by server restart.</t>
+  </si>
+  <si>
+    <t>https://howtodoinjava.com/spring-boot2/developer-tools-module-tutorial/</t>
+  </si>
+  <si>
+    <t>How to enable HTTP/2 support in Spring Boot</t>
+  </si>
+  <si>
+    <t>server.http2.enabled=true</t>
+  </si>
+  <si>
+    <t>https://docs.spring.io/spring-boot/docs/current/reference/html/production-ready-features.html</t>
+  </si>
+  <si>
+    <t>What do you understand by auto-configuration in Spring Boot and how to disable the  auto-configuration?</t>
+  </si>
+  <si>
+    <t>What are the differences between @SpringBootApplication and @EnableAutoConfiguration annotation?</t>
+  </si>
+  <si>
+    <t>Can we create a non-web application in Spring Boot?</t>
+  </si>
+  <si>
+    <t>How to instruct an auto-configuration to back off when a bean exists?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -78,14 +151,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -378,34 +464,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="67.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="67.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.140625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="45">
+      <c r="A13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="30">
+      <c r="A16" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B10" r:id="rId2"/>
+    <hyperlink ref="B12" r:id="rId3"/>
+    <hyperlink ref="B15" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
